--- a/01_Paradigms/ER-ED/ER_ED/StimuliNegative_4.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/StimuliNegative_4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_COG-ER-ED\COG-ER-ED\01_Paradigms\ER-ED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_COG-ER-ED\COG-ER-ED\01_Paradigms\ER-ED\ER_ED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="8">
   <si>
     <t>ImageFile</t>
   </si>
@@ -42,16 +42,13 @@
     <t>.jpg</t>
   </si>
   <si>
-    <t>Stimuli/233.jpg</t>
+    <t>Stimuli/208.jpg</t>
   </si>
   <si>
-    <t>Stimuli/236.jpg</t>
+    <t>Stimuli/218.jpg</t>
   </si>
   <si>
-    <t>Stimuli/250.jpg</t>
-  </si>
-  <si>
-    <t>StimSet</t>
+    <t>Stimuli/245.jpg</t>
   </si>
 </sst>
 </file>
@@ -371,43 +368,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/01_Paradigms/ER-ED/ER_ED/StimuliNegative_4.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/StimuliNegative_4.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="6">
   <si>
     <t>ImageFile</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>Stimuli/208.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/218.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/245.jpg</t>
   </si>
 </sst>
 </file>
@@ -368,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,16 +378,6 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
